--- a/timesheetapp/tabel.xlsx
+++ b/timesheetapp/tabel.xlsx
@@ -1,40 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellheor\Desktop\et\timesheetapp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCB664-A80F-480C-81EF-E9B844CAF32A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="травмпункт" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="травмпункт" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Утв приказом Минфина России</t>
+  </si>
+  <si>
+    <t>от 30 марта 2015г № 52н</t>
+  </si>
+  <si>
+    <t>Табель № 27</t>
+  </si>
+  <si>
+    <t>учета использования рабочего времени</t>
+  </si>
+  <si>
+    <t>коды</t>
+  </si>
+  <si>
+    <t>форма ОКУД</t>
+  </si>
+  <si>
+    <t>0504421</t>
+  </si>
+  <si>
+    <t>За период с 1 по 31 мая</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>11.05.2022</t>
+  </si>
+  <si>
+    <t>Учреждение</t>
+  </si>
+  <si>
+    <t>ОГАУЗ ГИМДКБ</t>
+  </si>
+  <si>
+    <t>по ОКПО</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -42,85 +100,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="8">
+    <cellStyle name="styleCenterBorderBottom" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="styleCenterTitle" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="styleCenterTitleBold" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="styleCenterTitleBorder" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="styleLeftTitle" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="styleRightTitle" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="styleRightTitleBold" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,39 +491,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N4"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Утв. приказом минфина России</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>от 30 марта 2015 г. № 52н</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="M4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="AK4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="7"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="7"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="N6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="AJ6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="7"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="N7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="AI7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>18</v>
+      </c>
+      <c r="S14">
+        <v>19</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
+        <v>21</v>
+      </c>
+      <c r="V14">
+        <v>22</v>
+      </c>
+      <c r="W14">
+        <v>23</v>
+      </c>
+      <c r="X14">
+        <v>24</v>
+      </c>
+      <c r="Y14">
+        <v>25</v>
+      </c>
+      <c r="Z14">
+        <v>26</v>
+      </c>
+      <c r="AA14">
+        <v>27</v>
+      </c>
+      <c r="AB14">
+        <v>28</v>
+      </c>
+      <c r="AC14">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="AK4:AL4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
--- a/timesheetapp/tabel.xlsx
+++ b/timesheetapp/tabel.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellheor\Desktop\et\timesheetapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCB664-A80F-480C-81EF-E9B844CAF32A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D4EF3-1811-4FC5-922B-E114CC9318C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="травмпункт" sheetId="1" r:id="rId1"/>
+    <sheet name="Табель 52Н" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Утв приказом Минфина России</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>11.05.2022</t>
+    <t>12.05.2022</t>
   </si>
   <si>
     <t>Учреждение</t>
@@ -59,13 +59,34 @@
   </si>
   <si>
     <t>по ОКПО</t>
+  </si>
+  <si>
+    <t>Структурное подразделение</t>
+  </si>
+  <si>
+    <t>Кабинет неотложной травматологии и ортопедии (травмпункт)</t>
+  </si>
+  <si>
+    <t>Вид табеля</t>
+  </si>
+  <si>
+    <t>первичный</t>
+  </si>
+  <si>
+    <t>Номер корректировки</t>
+  </si>
+  <si>
+    <t>(первичный - 0; корректирующий 1,2 и т.д.)</t>
+  </si>
+  <si>
+    <t>Дата формирования документа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,12 +96,26 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -132,65 +167,75 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="styleCenterBorderBottom" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="styleCenterSup" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="styleCenterTitle" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="styleCenterTitleBold" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="styleCenterTitleBorder" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="styleLeftTitle" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="styleRightTitle" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="styleCenterTitleBorder" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="styleLeftTitle" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="styleRightTitle" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="styleRightTitleBold" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -495,10 +540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,41 +565,110 @@
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="N3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="M4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
       <c r="AK4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="AL4" s="7"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI5" s="8" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ5" s="4"/>
       <c r="AK5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="AL5" s="7"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="N6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
       <c r="AJ6" s="1" t="s">
         <v>8</v>
       </c>
@@ -567,123 +681,182 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="AI7" s="8" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AJ7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ7" s="4"/>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AI9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AH10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>11</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <v>14</v>
-      </c>
-      <c r="O14">
-        <v>15</v>
-      </c>
-      <c r="P14">
-        <v>16</v>
-      </c>
-      <c r="Q14">
-        <v>17</v>
-      </c>
-      <c r="R14">
-        <v>18</v>
-      </c>
-      <c r="S14">
-        <v>19</v>
-      </c>
-      <c r="T14">
-        <v>20</v>
-      </c>
-      <c r="U14">
-        <v>21</v>
-      </c>
-      <c r="V14">
-        <v>22</v>
-      </c>
-      <c r="W14">
-        <v>23</v>
-      </c>
-      <c r="X14">
-        <v>24</v>
-      </c>
-      <c r="Y14">
-        <v>25</v>
-      </c>
-      <c r="Z14">
-        <v>26</v>
-      </c>
-      <c r="AA14">
-        <v>27</v>
-      </c>
-      <c r="AB14">
-        <v>28</v>
-      </c>
-      <c r="AC14">
-        <v>29</v>
-      </c>
+      <c r="AL10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AI5:AJ5"/>
+  <mergeCells count="19">
+    <mergeCell ref="D10:AD10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:AD8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="D9:AD9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="D6:AD6"/>
     <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="D7:AD7"/>
     <mergeCell ref="AK7:AL7"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="D3:AD3"/>
+    <mergeCell ref="D4:AD4"/>
     <mergeCell ref="AK4:AL4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
--- a/timesheetapp/tabel.xlsx
+++ b/timesheetapp/tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellheor\Desktop\et\timesheetapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D4EF3-1811-4FC5-922B-E114CC9318C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041D13A-EAFD-482A-8BC0-05A4B467B80D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>Утв приказом Минфина России</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>12.05.2022</t>
+    <t>16.05.2022</t>
   </si>
   <si>
     <t>Учреждение</t>
@@ -80,13 +80,187 @@
   </si>
   <si>
     <t>Дата формирования документа</t>
+  </si>
+  <si>
+    <t>Фамилия, имя, отчество</t>
+  </si>
+  <si>
+    <t>учетный номер</t>
+  </si>
+  <si>
+    <t>Должность (профессия)</t>
+  </si>
+  <si>
+    <t>Числа месяца</t>
+  </si>
+  <si>
+    <t>Итого дней (часов) явок (неявок) с 1-15</t>
+  </si>
+  <si>
+    <t>Всего дней (часов) явок (неявок) за месяц</t>
+  </si>
+  <si>
+    <t>Всего отработано часов</t>
+  </si>
+  <si>
+    <t>Ночные</t>
+  </si>
+  <si>
+    <t>Выходные</t>
+  </si>
+  <si>
+    <t>Праздничные</t>
+  </si>
+  <si>
+    <t>Прет111ориус Т.Л.</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>Заведующий кабинетом врач травматолог-ортопед</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Прет2222ориус Т.Л.</t>
+  </si>
+  <si>
+    <t>8835</t>
+  </si>
+  <si>
+    <t>врач травматолог-ортопед внутр. совместитель</t>
+  </si>
+  <si>
+    <t>Главный врач</t>
+  </si>
+  <si>
+    <t>Новожилов В.А.</t>
+  </si>
+  <si>
+    <t>Зав. отделения</t>
+  </si>
+  <si>
+    <t>Преториус Т.Л.</t>
+  </si>
+  <si>
+    <t>Старшая медсестра</t>
+  </si>
+  <si>
+    <t>Тотьямина Д.С.</t>
+  </si>
+  <si>
+    <t>Специалист о.к.</t>
+  </si>
+  <si>
+    <t>Краснова С.А.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +289,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="6"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -167,7 +351,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment horizontal="right" vertical="center"/>
@@ -185,22 +369,46 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -213,7 +421,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,15 +429,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="styleCenterBorderBottom" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="styleCenterBorderBottomMin" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="styleCenterDataBorder" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="styleCenterDataBorderBold" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="styleCenterSup" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="styleCenterTitle" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="styleCenterTitleBold" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -540,323 +763,812 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="35" width="3.42578125" customWidth="1"/>
+    <col min="36" max="36" width="7" customWidth="1"/>
+    <col min="37" max="40" width="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI1" s="3" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AH1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AI2" s="3" t="s">
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AI2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D4" s="6" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AK4" s="7" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AK4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AL4" s="7"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AJ5" s="1" t="s">
+      <c r="AL4" s="12"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AK5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AL5" s="7"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D6" s="6" t="s">
+      <c r="AL5" s="12"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AJ6" s="1" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AJ6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AK6" s="7" t="s">
+      <c r="AK6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="7"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="AL6" s="12"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AJ7" s="1" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AJ7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AI9" s="10" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AG9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AH10" s="10" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AF10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="7" t="s">
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AL10" s="7"/>
+      <c r="AL10" s="12"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+    </row>
+    <row r="13" spans="1:40" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7</v>
+      </c>
+      <c r="K13" s="4">
+        <v>8</v>
+      </c>
+      <c r="L13" s="4">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4">
+        <v>10</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11</v>
+      </c>
+      <c r="O13" s="4">
+        <v>12</v>
+      </c>
+      <c r="P13" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>14</v>
+      </c>
+      <c r="R13" s="4">
+        <v>15</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="4">
+        <v>16</v>
+      </c>
+      <c r="U13" s="4">
+        <v>17</v>
+      </c>
+      <c r="V13" s="4">
+        <v>18</v>
+      </c>
+      <c r="W13" s="4">
+        <v>19</v>
+      </c>
+      <c r="X13" s="4">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>22</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>25</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>26</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>27</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>28</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>29</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>30</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>31</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="27">
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C23:I23"/>
     <mergeCell ref="D10:AD10"/>
-    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AF10:AJ10"/>
     <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="D12:AN12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:AD8"/>
     <mergeCell ref="AK8:AL8"/>
     <mergeCell ref="D9:AD9"/>
-    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG9:AJ9"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="D6:AD6"/>
     <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="D7:AD7"/>
     <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AI2:AL2"/>
     <mergeCell ref="D3:AD3"/>
     <mergeCell ref="D4:AD4"/>
     <mergeCell ref="AK4:AL4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/timesheetapp/tabel.xlsx
+++ b/timesheetapp/tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellheor\Desktop\et\timesheetapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041D13A-EAFD-482A-8BC0-05A4B467B80D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E384CE-1E2C-41BD-9537-E529AEC50E83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>Утв приказом Минфина России</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>16.05.2022</t>
+    <t>17.05.2022</t>
   </si>
   <si>
     <t>Учреждение</t>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Новожилов В.А.</t>
+  </si>
+  <si>
+    <t>(Должность)</t>
+  </si>
+  <si>
+    <t>(Подпись)</t>
   </si>
   <si>
     <t>Зав. отделения</t>
@@ -260,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +308,10 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -350,8 +360,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment horizontal="right" vertical="center"/>
@@ -383,11 +402,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -398,6 +420,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -407,8 +432,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -444,16 +472,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="11" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="styleCenterBorderBottom" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="styleCenterBorderBottomMin" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="styleCenterDataBorder" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="styleCenterDataBorderBold" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="styleCenterSup" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="styleCenterSupBorderTop" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="styleCenterTitle" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="styleCenterTitleBold" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="styleCenterTitleBorder" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -763,10 +792,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ14" sqref="AQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,768 +811,918 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AK4" s="12" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AK4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AL4" s="12"/>
+      <c r="AL4" s="14"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AJ5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AK5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AL5" s="12"/>
+      <c r="AL5" s="14"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
       <c r="AJ6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AK6" s="12" t="s">
+      <c r="AK6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="12"/>
+      <c r="AL6" s="14"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
       <c r="AJ7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AG9" s="16" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AG9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AF10" s="16" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AF10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="12" t="s">
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AL10" s="12"/>
+      <c r="AL10" s="14"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
     </row>
     <row r="13" spans="1:40" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>3</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>5</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>6</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>7</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>8</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <v>9</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="5">
         <v>10</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>11</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="5">
         <v>12</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <v>13</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <v>14</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="5">
         <v>15</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>16</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="5">
         <v>17</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="5">
         <v>18</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="5">
         <v>19</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="5">
         <v>20</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="5">
         <v>21</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="5">
         <v>22</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="5">
         <v>23</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="5">
         <v>24</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="5">
         <v>25</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="5">
         <v>26</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE13" s="5">
         <v>27</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF13" s="5">
         <v>28</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="5">
         <v>29</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH13" s="5">
         <v>30</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI13" s="5">
         <v>31</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AJ13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AK13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AL13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AM13" s="4" t="s">
+      <c r="AM13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AN13" s="4" t="s">
+      <c r="AN13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
+        <v>13</v>
+      </c>
+      <c r="N14" s="1">
+        <v>14</v>
+      </c>
+      <c r="O14" s="1">
+        <v>15</v>
+      </c>
+      <c r="P14" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>17</v>
+      </c>
+      <c r="R14" s="1">
+        <v>18</v>
+      </c>
+      <c r="S14" s="1">
+        <v>19</v>
+      </c>
+      <c r="T14" s="1">
+        <v>20</v>
+      </c>
+      <c r="U14" s="1">
+        <v>21</v>
+      </c>
+      <c r="V14" s="1">
+        <v>22</v>
+      </c>
+      <c r="W14" s="1">
+        <v>23</v>
+      </c>
+      <c r="X14" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="1">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="AE14" s="1">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="AF14" s="1">
         <v>32</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="AG14" s="1">
         <v>33</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="AH14" s="1">
         <v>34</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="AI14" s="1">
         <v>35</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="AJ14" s="1">
         <v>36</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="AK14" s="1">
         <v>37</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="AL14" s="1">
         <v>38</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="AM14" s="1">
         <v>39</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="AN14" s="1">
         <v>40</v>
       </c>
-      <c r="L14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:40" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="V14" s="5" t="s">
+      <c r="V15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Y15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Z15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AA14" s="5" t="s">
+      <c r="AA15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AB15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC14" s="5" t="s">
+      <c r="AC15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AD15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AE14" s="5" t="s">
+      <c r="AE15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AF14" s="5" t="s">
+      <c r="AF15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AG14" s="5" t="s">
+      <c r="AG15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AH14" s="5" t="s">
+      <c r="AH15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AI14" s="5" t="s">
+      <c r="AI15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AJ14" s="5" t="s">
+      <c r="AJ15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AK14" s="5" t="s">
+      <c r="AK15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AL14" s="5" t="s">
+      <c r="AL15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AM14" s="5" t="s">
+      <c r="AM15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AN14" s="5" t="s">
+      <c r="AN15" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:40" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="V15" s="5" t="s">
+      <c r="V16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="5" t="s">
+      <c r="X16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="5" t="s">
+      <c r="Y16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AA16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AB15" s="5" t="s">
+      <c r="AB16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="5" t="s">
+      <c r="AC16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AD16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AE16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AF15" s="5" t="s">
+      <c r="AF16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AG15" s="5" t="s">
+      <c r="AG16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AH15" s="5" t="s">
+      <c r="AH16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AI15" s="5" t="s">
+      <c r="AI16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AJ15" s="5" t="s">
+      <c r="AJ16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AK15" s="5" t="s">
+      <c r="AK16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AL15" s="5" t="s">
+      <c r="AL16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AM15" s="5" t="s">
+      <c r="AM16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AN15" s="5" t="s">
+      <c r="AN16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D18" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="9"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D24:I24"/>
     <mergeCell ref="D10:AD10"/>
     <mergeCell ref="AF10:AJ10"/>
     <mergeCell ref="AK10:AL10"/>
@@ -1569,6 +1748,6 @@
     <mergeCell ref="AK4:AL4"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>